--- a/data/georgia_census/adjara/xulo/population_total.xlsx
+++ b/data/georgia_census/adjara/xulo/population_total.xlsx
@@ -1357,13 +1357,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4AA84B7D-3CF8-49DE-AE7F-2A92A58DCF5D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{884F6897-2AD1-4C20-8FC4-347D6F885AD9}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{94E62190-98FE-4AEA-A9C0-B847D0FD1E00}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D8249B7E-50DB-4D7D-8A96-030CD8CAC490}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC96D9B5-7FC1-49D6-B4DD-7B05F6866E00}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33584F1C-20B0-4DC0-A68A-D145B0302B50}"/>
 </file>